--- a/data/pca/factorExposure/factorExposure_2018-03-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.008398968282871415</v>
+        <v>0.01270682221808767</v>
       </c>
       <c r="C2">
-        <v>-0.02317940916004315</v>
+        <v>-0.02560075594163224</v>
       </c>
       <c r="D2">
-        <v>0.02132389978723272</v>
+        <v>-0.02378125597011627</v>
       </c>
       <c r="E2">
-        <v>-0.005253290163611749</v>
+        <v>-0.02262823548285659</v>
       </c>
       <c r="F2">
-        <v>0.08106236153519798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.0001088295130877669</v>
+      </c>
+      <c r="G2">
+        <v>0.01289925291318512</v>
+      </c>
+      <c r="H2">
+        <v>0.0442654966197279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08942379270949639</v>
+        <v>0.05690670026675509</v>
       </c>
       <c r="C3">
-        <v>-0.03777782110342575</v>
+        <v>-0.07755225592142312</v>
       </c>
       <c r="D3">
-        <v>0.007413724111112509</v>
+        <v>-0.004458223856626263</v>
       </c>
       <c r="E3">
-        <v>-0.03664405264614994</v>
+        <v>-0.03841536789913857</v>
       </c>
       <c r="F3">
-        <v>0.3171173074338676</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.07889853555784519</v>
+      </c>
+      <c r="G3">
+        <v>0.06223428824633285</v>
+      </c>
+      <c r="H3">
+        <v>0.122510766207649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04308045727508817</v>
+        <v>0.03474942832408482</v>
       </c>
       <c r="C4">
-        <v>-0.004790150419924768</v>
+        <v>-0.06288517124330022</v>
       </c>
       <c r="D4">
-        <v>0.03444442733617697</v>
+        <v>-0.01661013335835783</v>
       </c>
       <c r="E4">
-        <v>0.03874881408790186</v>
+        <v>0.02358492619598282</v>
       </c>
       <c r="F4">
-        <v>0.0604393579621702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.000866883547363927</v>
+      </c>
+      <c r="G4">
+        <v>0.04648532571858598</v>
+      </c>
+      <c r="H4">
+        <v>0.05219125252464172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03449367939051112</v>
+        <v>0.0186106107922447</v>
       </c>
       <c r="C6">
-        <v>-0.01128828349122366</v>
+        <v>-0.0648218216258056</v>
       </c>
       <c r="D6">
-        <v>0.0405562795987984</v>
+        <v>-0.01170270401940081</v>
       </c>
       <c r="E6">
-        <v>0.03030270727022567</v>
+        <v>0.01108136014736043</v>
       </c>
       <c r="F6">
-        <v>0.02029331437343099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01441526593252809</v>
+      </c>
+      <c r="G6">
+        <v>0.02800311378105018</v>
+      </c>
+      <c r="H6">
+        <v>0.05031930062711585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0377751568864206</v>
+        <v>0.006189196710995568</v>
       </c>
       <c r="C7">
-        <v>0.03583685475683585</v>
+        <v>-0.03393797636188614</v>
       </c>
       <c r="D7">
-        <v>0.01967743209352177</v>
+        <v>-0.01027295662710477</v>
       </c>
       <c r="E7">
-        <v>0.01040292612799003</v>
+        <v>0.03902913866291759</v>
       </c>
       <c r="F7">
-        <v>0.0272746121147342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02861197815764303</v>
+      </c>
+      <c r="G7">
+        <v>0.004716799099521832</v>
+      </c>
+      <c r="H7">
+        <v>0.03248800998305146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01201302340784505</v>
+        <v>-0.003492929476154301</v>
       </c>
       <c r="C8">
-        <v>0.00660849585209729</v>
+        <v>-0.009118472500282819</v>
       </c>
       <c r="D8">
-        <v>0.03549015072854504</v>
+        <v>-0.001570404675178359</v>
       </c>
       <c r="E8">
-        <v>0.02947527892716352</v>
+        <v>0.005985354295455408</v>
       </c>
       <c r="F8">
-        <v>0.05247308779307529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02000179431787307</v>
+      </c>
+      <c r="G8">
+        <v>0.02668087965018557</v>
+      </c>
+      <c r="H8">
+        <v>0.02563401467841379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03153432644276561</v>
+        <v>0.01957831094535892</v>
       </c>
       <c r="C9">
-        <v>-0.0008308556849900621</v>
+        <v>-0.04809087391553538</v>
       </c>
       <c r="D9">
-        <v>0.0302201997910537</v>
+        <v>-0.01136739103707645</v>
       </c>
       <c r="E9">
-        <v>0.01410509810604401</v>
+        <v>0.00539078689926586</v>
       </c>
       <c r="F9">
-        <v>0.07330399979442349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01507833218831891</v>
+      </c>
+      <c r="G9">
+        <v>0.0283443708043986</v>
+      </c>
+      <c r="H9">
+        <v>0.05186219725162827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04503053681683177</v>
+        <v>0.1385962473046449</v>
       </c>
       <c r="C10">
-        <v>-0.009460703727926957</v>
+        <v>0.1390330427834832</v>
       </c>
       <c r="D10">
-        <v>-0.1401793174396419</v>
+        <v>0.02311421190418703</v>
       </c>
       <c r="E10">
-        <v>-0.06235632620770994</v>
+        <v>-0.02105909356684206</v>
       </c>
       <c r="F10">
-        <v>0.05303883211457733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04850051585159941</v>
+      </c>
+      <c r="G10">
+        <v>-0.004976140601418765</v>
+      </c>
+      <c r="H10">
+        <v>-0.006401966192098499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0282189401018342</v>
+        <v>0.01324181776684569</v>
       </c>
       <c r="C11">
-        <v>-0.01747844949147758</v>
+        <v>-0.05013303358594835</v>
       </c>
       <c r="D11">
-        <v>0.03822290422871389</v>
+        <v>0.001530169215939035</v>
       </c>
       <c r="E11">
-        <v>0.02525329831313236</v>
+        <v>0.001396272800349806</v>
       </c>
       <c r="F11">
-        <v>0.0227175812638757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.005402664512965897</v>
+      </c>
+      <c r="G11">
+        <v>0.01453046115247884</v>
+      </c>
+      <c r="H11">
+        <v>0.04692713420846907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04050383935613672</v>
+        <v>0.01861018094663608</v>
       </c>
       <c r="C12">
-        <v>-0.01676867700516778</v>
+        <v>-0.04796108421073884</v>
       </c>
       <c r="D12">
-        <v>0.03347361027762762</v>
+        <v>-0.002039575904786835</v>
       </c>
       <c r="E12">
-        <v>0.03268529194427177</v>
+        <v>0.01517897798292716</v>
       </c>
       <c r="F12">
-        <v>-0.00417888563619916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.005449130125434342</v>
+      </c>
+      <c r="G12">
+        <v>0.008199649661523679</v>
+      </c>
+      <c r="H12">
+        <v>0.01879429973667283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.007662918042977792</v>
+        <v>0.01375534760987775</v>
       </c>
       <c r="C13">
-        <v>-0.01817177628401831</v>
+        <v>-0.0252374707469855</v>
       </c>
       <c r="D13">
-        <v>0.008793711943027353</v>
+        <v>-0.02016542828173339</v>
       </c>
       <c r="E13">
-        <v>0.01021711883012228</v>
+        <v>-0.01904135263274974</v>
       </c>
       <c r="F13">
-        <v>0.06906358755197232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.008153196633788424</v>
+      </c>
+      <c r="G13">
+        <v>0.04053040313391534</v>
+      </c>
+      <c r="H13">
+        <v>0.06496851837013624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02504761585709349</v>
+        <v>0.007073497276954161</v>
       </c>
       <c r="C14">
-        <v>0.005891053331010446</v>
+        <v>-0.02129049860676785</v>
       </c>
       <c r="D14">
-        <v>0.01236002095198105</v>
+        <v>-0.005792109048057385</v>
       </c>
       <c r="E14">
-        <v>0.01698377135968944</v>
+        <v>0.01221549259365758</v>
       </c>
       <c r="F14">
-        <v>0.04171245607318782</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01922336355347645</v>
+      </c>
+      <c r="G14">
+        <v>0.02142682457130495</v>
+      </c>
+      <c r="H14">
+        <v>0.01690850425299923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02867005426927516</v>
+        <v>0.01534767958811673</v>
       </c>
       <c r="C16">
-        <v>-0.01555939827081759</v>
+        <v>-0.0438502010810331</v>
       </c>
       <c r="D16">
-        <v>0.04314233056360528</v>
+        <v>0.001999573291551014</v>
       </c>
       <c r="E16">
-        <v>0.02571643767948137</v>
+        <v>0.005155497769788822</v>
       </c>
       <c r="F16">
-        <v>0.02731154413784544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.002134313865865353</v>
+      </c>
+      <c r="G16">
+        <v>0.01625413134919618</v>
+      </c>
+      <c r="H16">
+        <v>0.03594165474013584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03414217224489849</v>
+        <v>0.015636709785846</v>
       </c>
       <c r="C19">
-        <v>-0.009970197571851252</v>
+        <v>-0.04317930361505583</v>
       </c>
       <c r="D19">
-        <v>0.03473211353844127</v>
+        <v>-0.01008056877666619</v>
       </c>
       <c r="E19">
-        <v>0.04139945689570642</v>
+        <v>0.006551142036571187</v>
       </c>
       <c r="F19">
-        <v>0.07038141658372975</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.01930112545142901</v>
+      </c>
+      <c r="G19">
+        <v>0.04272821362265074</v>
+      </c>
+      <c r="H19">
+        <v>0.05436101936052186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002709664710603807</v>
+        <v>0.002562722015390387</v>
       </c>
       <c r="C20">
-        <v>0.009708860666214939</v>
+        <v>-0.02153100146912399</v>
       </c>
       <c r="D20">
-        <v>0.0008856810819150952</v>
+        <v>-0.009941564053170945</v>
       </c>
       <c r="E20">
-        <v>0.01385018137364396</v>
+        <v>-0.003422758520771898</v>
       </c>
       <c r="F20">
-        <v>0.04594192973421093</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02294452421445065</v>
+      </c>
+      <c r="G20">
+        <v>0.03314382602722726</v>
+      </c>
+      <c r="H20">
+        <v>0.02845061052179711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0200827336274113</v>
+        <v>0.006470092566163702</v>
       </c>
       <c r="C21">
-        <v>0.01328077445662562</v>
+        <v>-0.02126788278650688</v>
       </c>
       <c r="D21">
-        <v>0.0264619731557772</v>
+        <v>-0.01238800107742948</v>
       </c>
       <c r="E21">
-        <v>0.01285906230280617</v>
+        <v>0.009303305031042364</v>
       </c>
       <c r="F21">
-        <v>0.01828940204752877</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02372106533127893</v>
+      </c>
+      <c r="G21">
+        <v>0.01702164620492744</v>
+      </c>
+      <c r="H21">
+        <v>0.03965850280006089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02522256311948811</v>
+        <v>0.008906720619522282</v>
       </c>
       <c r="C24">
-        <v>-0.01471133955133698</v>
+        <v>-0.04205301268803751</v>
       </c>
       <c r="D24">
-        <v>0.02277426536016034</v>
+        <v>-0.003576025534146678</v>
       </c>
       <c r="E24">
-        <v>0.02149050267635735</v>
+        <v>0.005830030067096777</v>
       </c>
       <c r="F24">
-        <v>0.02598334550710698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.007893683409985501</v>
+      </c>
+      <c r="G24">
+        <v>0.008281717833710149</v>
+      </c>
+      <c r="H24">
+        <v>0.04110575424330389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0295280644028146</v>
+        <v>0.02328228775304072</v>
       </c>
       <c r="C25">
-        <v>-0.01294368421983184</v>
+        <v>-0.04987589076364759</v>
       </c>
       <c r="D25">
-        <v>0.03351883322417051</v>
+        <v>-0.006389102526728021</v>
       </c>
       <c r="E25">
-        <v>0.01961160095713434</v>
+        <v>0.01215553162277719</v>
       </c>
       <c r="F25">
-        <v>0.02932691708820181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.007235451841245117</v>
+      </c>
+      <c r="G25">
+        <v>0.01751673206812509</v>
+      </c>
+      <c r="H25">
+        <v>0.03832175797860043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01357816771167481</v>
+        <v>0.00596229527764899</v>
       </c>
       <c r="C26">
-        <v>-0.002330530052464407</v>
+        <v>-0.006093677659715186</v>
       </c>
       <c r="D26">
-        <v>0.01639366479884054</v>
+        <v>-0.02225112112410894</v>
       </c>
       <c r="E26">
-        <v>-0.009147551775663532</v>
+        <v>0.002067746546256492</v>
       </c>
       <c r="F26">
-        <v>0.05118121816803691</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01286895697400278</v>
+      </c>
+      <c r="G26">
+        <v>0.007315323119075419</v>
+      </c>
+      <c r="H26">
+        <v>0.01878677929460213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.02837813249132708</v>
+        <v>0.008428729117751201</v>
       </c>
       <c r="C27">
-        <v>-0.004949984891211393</v>
+        <v>-0.008623762407032486</v>
       </c>
       <c r="D27">
-        <v>-0.001219931794994351</v>
+        <v>0.001672876456405104</v>
       </c>
       <c r="E27">
-        <v>0.02515806250359091</v>
+        <v>0.00717021766335641</v>
       </c>
       <c r="F27">
-        <v>0.005952473344415381</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.00872073945929578</v>
+      </c>
+      <c r="G27">
+        <v>0.006223385528819182</v>
+      </c>
+      <c r="H27">
+        <v>-0.009254778353587121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08766774376548492</v>
+        <v>0.1915661584495358</v>
       </c>
       <c r="C28">
-        <v>-0.01795018709492587</v>
+        <v>0.1782542340449003</v>
       </c>
       <c r="D28">
-        <v>-0.2061835244266439</v>
+        <v>0.01760181077475903</v>
       </c>
       <c r="E28">
-        <v>-0.1004972369251139</v>
+        <v>-0.00422862988276091</v>
       </c>
       <c r="F28">
-        <v>0.04973498035764592</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05041807526132158</v>
+      </c>
+      <c r="G28">
+        <v>-0.01412252153567255</v>
+      </c>
+      <c r="H28">
+        <v>-0.01045406243109398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0265714205883854</v>
+        <v>0.01174617884659773</v>
       </c>
       <c r="C29">
-        <v>0.001976835798217553</v>
+        <v>-0.01886407184902014</v>
       </c>
       <c r="D29">
-        <v>0.01183627957427245</v>
+        <v>-0.004739854538494168</v>
       </c>
       <c r="E29">
-        <v>0.01939360844979572</v>
+        <v>0.009184215793552665</v>
       </c>
       <c r="F29">
-        <v>0.03973576762890346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02054153010040031</v>
+      </c>
+      <c r="G29">
+        <v>0.02131439762782901</v>
+      </c>
+      <c r="H29">
+        <v>0.008920466063967073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03555660981222222</v>
+        <v>0.02176264016573904</v>
       </c>
       <c r="C30">
-        <v>-0.06121782005688389</v>
+        <v>-0.08762753467895734</v>
       </c>
       <c r="D30">
-        <v>0.05714092907031482</v>
+        <v>-0.0214325094951263</v>
       </c>
       <c r="E30">
-        <v>0.02805597063337868</v>
+        <v>-0.02770293810706839</v>
       </c>
       <c r="F30">
-        <v>0.07904635029338848</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.0146580329394454</v>
+      </c>
+      <c r="G30">
+        <v>0.04860937572371676</v>
+      </c>
+      <c r="H30">
+        <v>0.07284890422503219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04832370850489232</v>
+        <v>0.03545285328719216</v>
       </c>
       <c r="C31">
-        <v>-0.01984025001380686</v>
+        <v>-0.03331608461671458</v>
       </c>
       <c r="D31">
-        <v>0.02054135384761983</v>
+        <v>0.0007695822005609419</v>
       </c>
       <c r="E31">
-        <v>0.02468867481249136</v>
+        <v>0.004827344067823733</v>
       </c>
       <c r="F31">
-        <v>0.03178248789324956</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01402592731517752</v>
+      </c>
+      <c r="G31">
+        <v>0.007921263500671221</v>
+      </c>
+      <c r="H31">
+        <v>0.0006394696232561663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02224164295801927</v>
+        <v>-0.001824183450209011</v>
       </c>
       <c r="C32">
-        <v>0.02032119457880335</v>
+        <v>-0.01236857926773617</v>
       </c>
       <c r="D32">
-        <v>0.04724861854141142</v>
+        <v>0.007948189843668357</v>
       </c>
       <c r="E32">
-        <v>0.04208396177558757</v>
+        <v>0.02817622545862771</v>
       </c>
       <c r="F32">
-        <v>0.03865482763278447</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.02161925535804025</v>
+      </c>
+      <c r="G32">
+        <v>0.04724969925346217</v>
+      </c>
+      <c r="H32">
+        <v>0.04338865526993252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03111779663257812</v>
+        <v>0.01667722323864639</v>
       </c>
       <c r="C33">
-        <v>-0.03512336467890531</v>
+        <v>-0.04822826251837166</v>
       </c>
       <c r="D33">
-        <v>0.04796826387747151</v>
+        <v>-0.01000033864898751</v>
       </c>
       <c r="E33">
-        <v>0.01131385784205323</v>
+        <v>-0.02445034731893722</v>
       </c>
       <c r="F33">
-        <v>0.05386012311267259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01521676918291144</v>
+      </c>
+      <c r="G33">
+        <v>0.0138815886369042</v>
+      </c>
+      <c r="H33">
+        <v>0.04858809540241657</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03266140691097702</v>
+        <v>0.02441480612383451</v>
       </c>
       <c r="C34">
-        <v>-0.008192367625408975</v>
+        <v>-0.05101503338211556</v>
       </c>
       <c r="D34">
-        <v>0.03897155659012971</v>
+        <v>0.01013848182243793</v>
       </c>
       <c r="E34">
-        <v>0.03217322929819451</v>
+        <v>0.02007233491071394</v>
       </c>
       <c r="F34">
-        <v>0.02199968495769628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.007919504749222686</v>
+      </c>
+      <c r="G34">
+        <v>0.01236339962242189</v>
+      </c>
+      <c r="H34">
+        <v>0.03537400310987823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01923179839914747</v>
+        <v>0.01260996548366126</v>
       </c>
       <c r="C36">
-        <v>0.003554890415082255</v>
+        <v>-0.006826613238068513</v>
       </c>
       <c r="D36">
-        <v>0.00402197993117541</v>
+        <v>-0.008954770846032627</v>
       </c>
       <c r="E36">
-        <v>0.01287539948665812</v>
+        <v>0.005175655434457805</v>
       </c>
       <c r="F36">
-        <v>0.02882692973941652</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01470414434889718</v>
+      </c>
+      <c r="G36">
+        <v>0.008631861925706124</v>
+      </c>
+      <c r="H36">
+        <v>0.01162709476826119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01241001419915293</v>
+        <v>0.02659906223441047</v>
       </c>
       <c r="C38">
-        <v>-0.007827684150237831</v>
+        <v>-0.02214151483549238</v>
       </c>
       <c r="D38">
-        <v>0.001698996555390055</v>
+        <v>0.01142621779102089</v>
       </c>
       <c r="E38">
-        <v>-0.0218612445379732</v>
+        <v>-0.0006979119862314908</v>
       </c>
       <c r="F38">
-        <v>0.04489662795893953</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.001798354999328041</v>
+      </c>
+      <c r="G38">
+        <v>0.01314756028999068</v>
+      </c>
+      <c r="H38">
+        <v>0.03505810895968013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02500695486938107</v>
+        <v>0.001532539728680732</v>
       </c>
       <c r="C39">
-        <v>-0.01428043938357994</v>
+        <v>-0.08790524700398619</v>
       </c>
       <c r="D39">
-        <v>0.05986901073805594</v>
+        <v>-0.008126878389824076</v>
       </c>
       <c r="E39">
-        <v>0.02615851021353688</v>
+        <v>-0.002284499561764156</v>
       </c>
       <c r="F39">
-        <v>0.04500161983079162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.009976492094555797</v>
+      </c>
+      <c r="G39">
+        <v>0.02219738727256666</v>
+      </c>
+      <c r="H39">
+        <v>0.07725056781261654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01508267841527155</v>
+        <v>0.01870026335434262</v>
       </c>
       <c r="C40">
-        <v>-0.04071728245690744</v>
+        <v>-0.02984425814078326</v>
       </c>
       <c r="D40">
-        <v>0.01926403409337182</v>
+        <v>-0.007657329398239419</v>
       </c>
       <c r="E40">
-        <v>0.03281654211374638</v>
+        <v>-0.01076507021849748</v>
       </c>
       <c r="F40">
-        <v>0.02933029391481528</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02413921182645684</v>
+      </c>
+      <c r="G40">
+        <v>0.02403261010232759</v>
+      </c>
+      <c r="H40">
+        <v>0.04378347489105908</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.00978936790406074</v>
+        <v>0.01202715460589496</v>
       </c>
       <c r="C41">
-        <v>-0.001151359513596623</v>
+        <v>0.007479094213766974</v>
       </c>
       <c r="D41">
-        <v>0.001515835964186695</v>
+        <v>-0.002143983348342156</v>
       </c>
       <c r="E41">
-        <v>-0.0123791400931407</v>
+        <v>0.001527883143296647</v>
       </c>
       <c r="F41">
-        <v>0.005523354242311558</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.007613473540432333</v>
+      </c>
+      <c r="G41">
+        <v>-0.007949956920960552</v>
+      </c>
+      <c r="H41">
+        <v>-0.003659146224183242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2357202967811293</v>
+        <v>0.0791047893632793</v>
       </c>
       <c r="C42">
-        <v>-0.2282394136049345</v>
+        <v>-0.215326278870435</v>
       </c>
       <c r="D42">
-        <v>0.365745080777789</v>
+        <v>-0.1193248982203692</v>
       </c>
       <c r="E42">
-        <v>-0.8039957102029588</v>
+        <v>-0.3342937068580499</v>
       </c>
       <c r="F42">
-        <v>-0.2695163170514881</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.2109458011473156</v>
+      </c>
+      <c r="G42">
+        <v>-0.8692010779861571</v>
+      </c>
+      <c r="H42">
+        <v>0.05704224442225275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01175470666474683</v>
+        <v>0.01295968894341579</v>
       </c>
       <c r="C43">
-        <v>-0.004132503281494527</v>
+        <v>0.005486817843951016</v>
       </c>
       <c r="D43">
-        <v>0.006044740285639095</v>
+        <v>-0.002829962325091469</v>
       </c>
       <c r="E43">
-        <v>-0.0001205134803843431</v>
+        <v>0.001709654153150767</v>
       </c>
       <c r="F43">
-        <v>0.02454895611090237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.00558141107849006</v>
+      </c>
+      <c r="G43">
+        <v>-0.006868998292390793</v>
+      </c>
+      <c r="H43">
+        <v>0.004784104302498685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02496098294163181</v>
+        <v>0.006470234575070235</v>
       </c>
       <c r="C44">
-        <v>0.009597401965557887</v>
+        <v>-0.03984169569107449</v>
       </c>
       <c r="D44">
-        <v>0.02704958453646208</v>
+        <v>-0.003354987153821101</v>
       </c>
       <c r="E44">
-        <v>-0.005203983370807371</v>
+        <v>0.003678654544258056</v>
       </c>
       <c r="F44">
-        <v>0.08877418563057218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.03100770153957133</v>
+      </c>
+      <c r="G44">
+        <v>0.0129642571894122</v>
+      </c>
+      <c r="H44">
+        <v>0.060061270989663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01886948854574984</v>
+        <v>0.00325582074281307</v>
       </c>
       <c r="C46">
-        <v>-0.004884398684448881</v>
+        <v>-0.01361049002958538</v>
       </c>
       <c r="D46">
-        <v>0.04131207999414786</v>
+        <v>-0.01003523317681993</v>
       </c>
       <c r="E46">
-        <v>0.02629608442054097</v>
+        <v>0.003655905056026749</v>
       </c>
       <c r="F46">
-        <v>0.0549137673101125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01282887491433421</v>
+      </c>
+      <c r="G46">
+        <v>0.01342311739382915</v>
+      </c>
+      <c r="H46">
+        <v>0.01435899437990629</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07755309007243689</v>
+        <v>0.05369319950069314</v>
       </c>
       <c r="C47">
-        <v>-0.03871589395021739</v>
+        <v>-0.06894144370988346</v>
       </c>
       <c r="D47">
-        <v>0.01244451432358347</v>
+        <v>0.01102593795371921</v>
       </c>
       <c r="E47">
-        <v>0.0344969465874463</v>
+        <v>0.01109076191752621</v>
       </c>
       <c r="F47">
-        <v>0.005477824361748158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.003263971729172266</v>
+      </c>
+      <c r="G47">
+        <v>0.005289710424079459</v>
+      </c>
+      <c r="H47">
+        <v>-0.0345535444521541</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01861369422549534</v>
+        <v>0.01326248879046492</v>
       </c>
       <c r="C48">
-        <v>-0.006815263032215809</v>
+        <v>-0.01596685107420292</v>
       </c>
       <c r="D48">
-        <v>0.01319687608705248</v>
+        <v>0.0005498951829676659</v>
       </c>
       <c r="E48">
-        <v>0.01160895181775094</v>
+        <v>0.00100975137511589</v>
       </c>
       <c r="F48">
-        <v>0.03125056963277083</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.007641904050883692</v>
+      </c>
+      <c r="G48">
+        <v>0.00955834394464645</v>
+      </c>
+      <c r="H48">
+        <v>0.01743690631954473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08527601811057768</v>
+        <v>0.05528680965585651</v>
       </c>
       <c r="C50">
-        <v>-0.01351320758659916</v>
+        <v>-0.06485293314276346</v>
       </c>
       <c r="D50">
-        <v>0.03257689126909444</v>
+        <v>0.009016369886299639</v>
       </c>
       <c r="E50">
-        <v>0.02409448600659546</v>
+        <v>0.02571199014352062</v>
       </c>
       <c r="F50">
-        <v>0.01489507247313353</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02069978039214644</v>
+      </c>
+      <c r="G50">
+        <v>0.0009999989723432742</v>
+      </c>
+      <c r="H50">
+        <v>-0.02146749220732248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01613953433632196</v>
+        <v>0.01427237901236336</v>
       </c>
       <c r="C51">
-        <v>0.003919927336825179</v>
+        <v>-0.01736561946515874</v>
       </c>
       <c r="D51">
-        <v>-0.00382707711375475</v>
+        <v>-0.004638710666837133</v>
       </c>
       <c r="E51">
-        <v>0.002666819907766591</v>
+        <v>0.007983117319558997</v>
       </c>
       <c r="F51">
-        <v>0.09225192194243381</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01261025648147754</v>
+      </c>
+      <c r="G51">
+        <v>0.01712928054141735</v>
+      </c>
+      <c r="H51">
+        <v>0.04987010851611707</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08990207347514549</v>
+        <v>0.07032918968566436</v>
       </c>
       <c r="C53">
-        <v>-0.03952351401785376</v>
+        <v>-0.1064032109672549</v>
       </c>
       <c r="D53">
-        <v>0.04047696066052916</v>
+        <v>0.01254561338821161</v>
       </c>
       <c r="E53">
-        <v>0.05282655677848919</v>
+        <v>0.02274370783661134</v>
       </c>
       <c r="F53">
-        <v>-0.03037773442043822</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.01450465576042603</v>
+      </c>
+      <c r="G53">
+        <v>0.0007114440442764837</v>
+      </c>
+      <c r="H53">
+        <v>-0.0398418991508714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02691336785409184</v>
+        <v>0.02226609745508197</v>
       </c>
       <c r="C54">
-        <v>0.002586719454497266</v>
+        <v>-0.001418310880009714</v>
       </c>
       <c r="D54">
-        <v>-0.005320258052150913</v>
+        <v>0.006678109782915019</v>
       </c>
       <c r="E54">
-        <v>0.02463204446591529</v>
+        <v>0.002286997199020072</v>
       </c>
       <c r="F54">
-        <v>0.02790947210988198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02595588829558353</v>
+      </c>
+      <c r="G54">
+        <v>0.02317828546370242</v>
+      </c>
+      <c r="H54">
+        <v>0.006368734750980285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08233231173161847</v>
+        <v>0.05206229002574008</v>
       </c>
       <c r="C55">
-        <v>-0.03545874178673705</v>
+        <v>-0.09464729153936904</v>
       </c>
       <c r="D55">
-        <v>0.04792194189326053</v>
+        <v>0.01015024716178306</v>
       </c>
       <c r="E55">
-        <v>0.03780044216735433</v>
+        <v>0.01348601109565729</v>
       </c>
       <c r="F55">
-        <v>-0.03000395406066148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>2.070543822031129e-05</v>
+      </c>
+      <c r="G55">
+        <v>0.001772799165573513</v>
+      </c>
+      <c r="H55">
+        <v>-0.03773378062718032</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1274534700793239</v>
+        <v>0.09555332478943315</v>
       </c>
       <c r="C56">
-        <v>-0.06661076056874798</v>
+        <v>-0.1356089012684758</v>
       </c>
       <c r="D56">
-        <v>0.02078247009501584</v>
+        <v>0.02220646273752599</v>
       </c>
       <c r="E56">
-        <v>0.08331919833331222</v>
+        <v>0.03292877224855353</v>
       </c>
       <c r="F56">
-        <v>-0.05452775622438828</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.03526406807878985</v>
+      </c>
+      <c r="G56">
+        <v>-0.0009802980362308134</v>
+      </c>
+      <c r="H56">
+        <v>-0.08410509233588882</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03447779591239523</v>
+        <v>0.02113618230041086</v>
       </c>
       <c r="C57">
-        <v>-0.01754556139177331</v>
+        <v>-0.03032337997536608</v>
       </c>
       <c r="D57">
-        <v>0.02748077467087441</v>
+        <v>-0.02188531975821471</v>
       </c>
       <c r="E57">
-        <v>-0.03323366486165025</v>
+        <v>-0.01922528444031974</v>
       </c>
       <c r="F57">
-        <v>0.05747354002639839</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.0393409072101019</v>
+      </c>
+      <c r="G57">
+        <v>0.02632323227095671</v>
+      </c>
+      <c r="H57">
+        <v>0.06514706638386925</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1484228810292417</v>
+        <v>0.07104197447178864</v>
       </c>
       <c r="C58">
-        <v>-0.1967173567454255</v>
+        <v>-0.1855290163601153</v>
       </c>
       <c r="D58">
-        <v>0.2159102215601227</v>
+        <v>-0.00186938234726794</v>
       </c>
       <c r="E58">
-        <v>0.02240171672589182</v>
+        <v>-0.6035535446032412</v>
       </c>
       <c r="F58">
-        <v>0.5751645740956652</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.5867646647644521</v>
+      </c>
+      <c r="G58">
+        <v>0.4229432485794365</v>
+      </c>
+      <c r="H58">
+        <v>-0.1004662719255635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.07093719346582576</v>
+        <v>0.2099493090508499</v>
       </c>
       <c r="C59">
-        <v>-0.04039729084497243</v>
+        <v>0.1641392527190486</v>
       </c>
       <c r="D59">
-        <v>-0.1789816429642316</v>
+        <v>0.02587630984685676</v>
       </c>
       <c r="E59">
-        <v>-0.05419033209403201</v>
+        <v>-0.01561082591776042</v>
       </c>
       <c r="F59">
-        <v>0.08279022132287842</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01549907015661224</v>
+      </c>
+      <c r="G59">
+        <v>0.01024860427887535</v>
+      </c>
+      <c r="H59">
+        <v>0.01546890365161574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1381585831587508</v>
+        <v>0.2264584761296239</v>
       </c>
       <c r="C60">
-        <v>-0.1033991816272758</v>
+        <v>-0.07785301134000285</v>
       </c>
       <c r="D60">
-        <v>-0.001668179346991007</v>
+        <v>0.0131560211845408</v>
       </c>
       <c r="E60">
-        <v>-0.01641485326084994</v>
+        <v>-0.0096585692182516</v>
       </c>
       <c r="F60">
-        <v>0.1788031419361923</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1424785287305872</v>
+      </c>
+      <c r="G60">
+        <v>0.05944986622323143</v>
+      </c>
+      <c r="H60">
+        <v>0.3879682790592381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0221636822180761</v>
+        <v>0.01152777813886489</v>
       </c>
       <c r="C61">
-        <v>-0.01014342768741296</v>
+        <v>-0.06321038950668706</v>
       </c>
       <c r="D61">
-        <v>0.04008302140835358</v>
+        <v>-0.001028057225222407</v>
       </c>
       <c r="E61">
-        <v>0.01146053714283971</v>
+        <v>0.005825302655232484</v>
       </c>
       <c r="F61">
-        <v>0.02070687885926063</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.005613473228129067</v>
+      </c>
+      <c r="G61">
+        <v>0.02133662544778836</v>
+      </c>
+      <c r="H61">
+        <v>0.05593474247401171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01700386185554302</v>
+        <v>0.00713720634080546</v>
       </c>
       <c r="C63">
-        <v>-0.002680537814141645</v>
+        <v>-0.02404106834515093</v>
       </c>
       <c r="D63">
-        <v>0.01859709517545313</v>
+        <v>-0.005948051301909062</v>
       </c>
       <c r="E63">
-        <v>0.005914271973805211</v>
+        <v>0.00953111318741004</v>
       </c>
       <c r="F63">
-        <v>0.001977835713358287</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.006709112352341566</v>
+      </c>
+      <c r="G63">
+        <v>0.01041256868776327</v>
+      </c>
+      <c r="H63">
+        <v>0.01150807631760845</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03945594176667658</v>
+        <v>0.03404420320291063</v>
       </c>
       <c r="C64">
-        <v>-0.002139238748315088</v>
+        <v>-0.04547488950493463</v>
       </c>
       <c r="D64">
-        <v>0.02920129611108295</v>
+        <v>-0.0001263971835015058</v>
       </c>
       <c r="E64">
-        <v>0.0227119513613179</v>
+        <v>0.02209936636699416</v>
       </c>
       <c r="F64">
-        <v>0.009167511126418892</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.008932868295014339</v>
+      </c>
+      <c r="G64">
+        <v>-0.0104494009427066</v>
+      </c>
+      <c r="H64">
+        <v>0.03642480067863579</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03837943993298219</v>
+        <v>0.04124357536538111</v>
       </c>
       <c r="C65">
-        <v>-0.01227817211985378</v>
+        <v>-0.08378345507352934</v>
       </c>
       <c r="D65">
-        <v>0.04109340862655226</v>
+        <v>-0.01013199637199608</v>
       </c>
       <c r="E65">
-        <v>0.0349264283820365</v>
+        <v>0.02086042823388114</v>
       </c>
       <c r="F65">
-        <v>0.01303747431701859</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.0355712845129946</v>
+      </c>
+      <c r="G65">
+        <v>0.03042891626381491</v>
+      </c>
+      <c r="H65">
+        <v>0.06552671571529203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03408938493145548</v>
+        <v>0.0105942364239521</v>
       </c>
       <c r="C66">
-        <v>-0.0271670835976752</v>
+        <v>-0.1185654982144663</v>
       </c>
       <c r="D66">
-        <v>0.06205063608160568</v>
+        <v>-0.004691030980569263</v>
       </c>
       <c r="E66">
-        <v>0.05397738293583323</v>
+        <v>0.002823954423160315</v>
       </c>
       <c r="F66">
-        <v>0.03234201202423119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.02880195371591655</v>
+      </c>
+      <c r="G66">
+        <v>0.04179389159819993</v>
+      </c>
+      <c r="H66">
+        <v>0.08435552721920717</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02280878857256676</v>
+        <v>0.04929667721473318</v>
       </c>
       <c r="C67">
-        <v>-0.01408647180119387</v>
+        <v>-0.02987650846082398</v>
       </c>
       <c r="D67">
-        <v>-0.00902695567768276</v>
+        <v>0.01174882384556331</v>
       </c>
       <c r="E67">
-        <v>-0.01558881437176771</v>
+        <v>0.005465471183199781</v>
       </c>
       <c r="F67">
-        <v>0.03057475251039905</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.009804687592656404</v>
+      </c>
+      <c r="G67">
+        <v>0.01610485996133603</v>
+      </c>
+      <c r="H67">
+        <v>0.034127446061099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08169602496203009</v>
+        <v>0.2105471706792039</v>
       </c>
       <c r="C68">
-        <v>-0.03228324380249331</v>
+        <v>0.202614165021686</v>
       </c>
       <c r="D68">
-        <v>-0.2023149583338208</v>
+        <v>0.006414921324450261</v>
       </c>
       <c r="E68">
-        <v>-0.06730924015202844</v>
+        <v>-0.02602047259502633</v>
       </c>
       <c r="F68">
-        <v>0.07374102659136995</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05562919263647647</v>
+      </c>
+      <c r="G68">
+        <v>-0.01486015250087801</v>
+      </c>
+      <c r="H68">
+        <v>-0.03149872947013641</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06228831992370721</v>
+        <v>0.05446604057531279</v>
       </c>
       <c r="C69">
-        <v>-0.03122718417767457</v>
+        <v>-0.06312359731754513</v>
       </c>
       <c r="D69">
-        <v>0.01431960964355004</v>
+        <v>0.01530603875460699</v>
       </c>
       <c r="E69">
-        <v>0.03685674886943477</v>
+        <v>0.020242111855838</v>
       </c>
       <c r="F69">
-        <v>0.001796627325891129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.01682372546608368</v>
+      </c>
+      <c r="G69">
+        <v>0.008650045103872801</v>
+      </c>
+      <c r="H69">
+        <v>-0.007040052980829488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08481913864031002</v>
+        <v>0.185648990006325</v>
       </c>
       <c r="C71">
-        <v>-0.03885800432333376</v>
+        <v>0.1583324354676398</v>
       </c>
       <c r="D71">
-        <v>-0.1998761481514628</v>
+        <v>0.01192688003617853</v>
       </c>
       <c r="E71">
-        <v>-0.1103163750418091</v>
+        <v>-0.02933201391544162</v>
       </c>
       <c r="F71">
-        <v>0.07955209203684431</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.05732162618364033</v>
+      </c>
+      <c r="G71">
+        <v>-0.02276920015439317</v>
+      </c>
+      <c r="H71">
+        <v>-0.009046616744318491</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1007283557617649</v>
+        <v>0.05350764663427507</v>
       </c>
       <c r="C72">
-        <v>-0.06237353500117705</v>
+        <v>-0.1117723887213479</v>
       </c>
       <c r="D72">
-        <v>0.08220369356763191</v>
+        <v>0.0165899773479</v>
       </c>
       <c r="E72">
-        <v>0.0897739765441453</v>
+        <v>0.003787994680737859</v>
       </c>
       <c r="F72">
-        <v>0.09252216719044076</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.03818764100004896</v>
+      </c>
+      <c r="G72">
+        <v>0.06057338941671022</v>
+      </c>
+      <c r="H72">
+        <v>0.09081959030420517</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1657318551927313</v>
+        <v>0.2903072169032868</v>
       </c>
       <c r="C73">
-        <v>-0.1733696411793827</v>
+        <v>-0.1578626134246806</v>
       </c>
       <c r="D73">
-        <v>0.01665090746946271</v>
+        <v>0.0124626662268235</v>
       </c>
       <c r="E73">
-        <v>-0.04083608336426172</v>
+        <v>-0.0377800057219374</v>
       </c>
       <c r="F73">
-        <v>0.2048342514271015</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1939862750763457</v>
+      </c>
+      <c r="G73">
+        <v>0.06276926490078229</v>
+      </c>
+      <c r="H73">
+        <v>0.4684033681345131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1147742635627503</v>
+        <v>0.09527065625705262</v>
       </c>
       <c r="C74">
-        <v>-0.05871348016418163</v>
+        <v>-0.13934174923937</v>
       </c>
       <c r="D74">
-        <v>0.03259518690714976</v>
+        <v>0.02232215040570444</v>
       </c>
       <c r="E74">
-        <v>0.0566014501055874</v>
+        <v>0.03006518583985518</v>
       </c>
       <c r="F74">
-        <v>-0.07075878068881686</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.02628678322003221</v>
+      </c>
+      <c r="G74">
+        <v>0.002683275907030679</v>
+      </c>
+      <c r="H74">
+        <v>-0.05264902324055944</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2075779525453133</v>
+        <v>0.1970396992965807</v>
       </c>
       <c r="C75">
-        <v>-0.1261731140414955</v>
+        <v>-0.2323364427129337</v>
       </c>
       <c r="D75">
-        <v>0.03014765524911291</v>
+        <v>0.04658361124374101</v>
       </c>
       <c r="E75">
-        <v>0.1658300292848708</v>
+        <v>0.04192003689985892</v>
       </c>
       <c r="F75">
-        <v>-0.109473234168174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.0718685437279475</v>
+      </c>
+      <c r="G75">
+        <v>0.01983268719744607</v>
+      </c>
+      <c r="H75">
+        <v>-0.1836991818160478</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2595022916849221</v>
+        <v>0.1455454143210556</v>
       </c>
       <c r="C76">
-        <v>-0.1111292650818961</v>
+        <v>-0.2042617037240335</v>
       </c>
       <c r="D76">
-        <v>0.02928256525266012</v>
+        <v>0.04002053542375832</v>
       </c>
       <c r="E76">
-        <v>0.1897338675998584</v>
+        <v>0.08080078758062627</v>
       </c>
       <c r="F76">
-        <v>-0.2098753732855241</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.04779339129330166</v>
+      </c>
+      <c r="G76">
+        <v>0.000505468520567329</v>
+      </c>
+      <c r="H76">
+        <v>-0.1572937853245884</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09320085339260102</v>
+        <v>0.04472036723145555</v>
       </c>
       <c r="C77">
-        <v>-0.06096043548702183</v>
+        <v>-0.08863047795415395</v>
       </c>
       <c r="D77">
-        <v>0.07832385041696549</v>
+        <v>-0.007652565311593443</v>
       </c>
       <c r="E77">
-        <v>-0.02745195324039222</v>
+        <v>-0.02352990467502478</v>
       </c>
       <c r="F77">
-        <v>0.09828505560330671</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.04072639645632556</v>
+      </c>
+      <c r="G77">
+        <v>0.008135946511261741</v>
+      </c>
+      <c r="H77">
+        <v>0.0178276832235513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05366296436398369</v>
+        <v>0.02025543866066577</v>
       </c>
       <c r="C78">
-        <v>-0.01391398962029298</v>
+        <v>-0.07601967888014151</v>
       </c>
       <c r="D78">
-        <v>0.09767950193992588</v>
+        <v>-0.002481818769786677</v>
       </c>
       <c r="E78">
-        <v>0.03865904282280631</v>
+        <v>0.003310131989236131</v>
       </c>
       <c r="F78">
-        <v>0.0729239403188949</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01356639130063396</v>
+      </c>
+      <c r="G78">
+        <v>0.03412282199728292</v>
+      </c>
+      <c r="H78">
+        <v>0.08694844072237883</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5428443626471363</v>
+        <v>0.09893419310860496</v>
       </c>
       <c r="C80">
-        <v>0.8158262882103153</v>
+        <v>-0.1136891573772689</v>
       </c>
       <c r="D80">
-        <v>0.06013674728453475</v>
+        <v>0.00505617322621551</v>
       </c>
       <c r="E80">
-        <v>-0.06873749434622921</v>
+        <v>0.6829267080932143</v>
       </c>
       <c r="F80">
-        <v>0.04809877774646537</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.6675596318469864</v>
+      </c>
+      <c r="G80">
+        <v>-0.05671317679682224</v>
+      </c>
+      <c r="H80">
+        <v>0.1150512592396342</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1697063127469881</v>
+        <v>0.1246910919711358</v>
       </c>
       <c r="C81">
-        <v>-0.0843765386626142</v>
+        <v>-0.1467171158062923</v>
       </c>
       <c r="D81">
-        <v>0.009336470654613507</v>
+        <v>0.0285791775779608</v>
       </c>
       <c r="E81">
-        <v>0.1274064905204673</v>
+        <v>0.04208714152173898</v>
       </c>
       <c r="F81">
-        <v>-0.09064470486238754</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.03000645712205817</v>
+      </c>
+      <c r="G81">
+        <v>0.005430685260640592</v>
+      </c>
+      <c r="H81">
+        <v>-0.1131828961565871</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.002055315268004618</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.0002296721597572819</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.00034674975826408</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.0003153775595413688</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.001477925008785155</v>
+      </c>
+      <c r="G82">
+        <v>1.43423045570122e-06</v>
+      </c>
+      <c r="H82">
+        <v>0.002523119853940047</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02813466811133396</v>
+        <v>0.01893600539402399</v>
       </c>
       <c r="C83">
-        <v>-0.01964368811542492</v>
+        <v>-0.02303504426235736</v>
       </c>
       <c r="D83">
-        <v>0.02697299827504273</v>
+        <v>-0.002924172349349076</v>
       </c>
       <c r="E83">
-        <v>-0.01507438301768191</v>
+        <v>-0.01159378484667653</v>
       </c>
       <c r="F83">
-        <v>0.04881096874035963</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01962294730676889</v>
+      </c>
+      <c r="G83">
+        <v>0.01492132690159575</v>
+      </c>
+      <c r="H83">
+        <v>0.04239891917583602</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.225011177923394</v>
+        <v>0.176130721364961</v>
       </c>
       <c r="C85">
-        <v>-0.1269695904914047</v>
+        <v>-0.2224704699394335</v>
       </c>
       <c r="D85">
-        <v>0.0300920239411758</v>
+        <v>0.03130401928376994</v>
       </c>
       <c r="E85">
-        <v>0.1704267572360517</v>
+        <v>0.0527644951295826</v>
       </c>
       <c r="F85">
-        <v>-0.1515628617694156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1003436358519825</v>
+      </c>
+      <c r="G85">
+        <v>-0.01151294110607744</v>
+      </c>
+      <c r="H85">
+        <v>-0.125661820156826</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.008662337463390854</v>
+        <v>0.009862892325595975</v>
       </c>
       <c r="C86">
-        <v>0.001133620505182868</v>
+        <v>-0.03511574599038394</v>
       </c>
       <c r="D86">
-        <v>0.05814147954359778</v>
+        <v>-0.006493224762074871</v>
       </c>
       <c r="E86">
-        <v>-0.0004183410109633054</v>
+        <v>-0.002341017316395281</v>
       </c>
       <c r="F86">
-        <v>0.0457893488380272</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02205893053441183</v>
+      </c>
+      <c r="G86">
+        <v>-0.0009479693765667231</v>
+      </c>
+      <c r="H86">
+        <v>0.07503164777984615</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02826627139196151</v>
+        <v>0.002989688501018794</v>
       </c>
       <c r="C87">
-        <v>-0.01068017660906456</v>
+        <v>-0.03839232668673441</v>
       </c>
       <c r="D87">
-        <v>0.04052443331958891</v>
+        <v>-0.008005247874033306</v>
       </c>
       <c r="E87">
-        <v>0.01157477322493692</v>
+        <v>-0.01732715151165169</v>
       </c>
       <c r="F87">
-        <v>0.09237189562832414</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.03881074022837173</v>
+      </c>
+      <c r="G87">
+        <v>0.03665334693098849</v>
+      </c>
+      <c r="H87">
+        <v>0.08177359733748309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.02261059575191127</v>
+        <v>0.04482690408073647</v>
       </c>
       <c r="C88">
-        <v>0.002722044966914063</v>
+        <v>-0.019980443729139</v>
       </c>
       <c r="D88">
-        <v>-0.003266928117928372</v>
+        <v>-0.01638034478090134</v>
       </c>
       <c r="E88">
-        <v>0.008512475472461927</v>
+        <v>0.02836245677706055</v>
       </c>
       <c r="F88">
-        <v>-0.02983848095474701</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.008218929873396671</v>
+      </c>
+      <c r="G88">
+        <v>0.004032003594395689</v>
+      </c>
+      <c r="H88">
+        <v>0.001293193064331571</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1248921597186364</v>
+        <v>0.3266829116247006</v>
       </c>
       <c r="C89">
-        <v>-0.08076491363125007</v>
+        <v>0.2846755876584986</v>
       </c>
       <c r="D89">
-        <v>-0.3487707981359492</v>
+        <v>0.02068887854480341</v>
       </c>
       <c r="E89">
-        <v>-0.08503029970340177</v>
+        <v>-0.01762122287017201</v>
       </c>
       <c r="F89">
-        <v>0.09966437213508977</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.001620581693809591</v>
+      </c>
+      <c r="G89">
+        <v>-0.02158233807943178</v>
+      </c>
+      <c r="H89">
+        <v>-0.01866829913326373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.103312001761595</v>
+        <v>0.2724287524173598</v>
       </c>
       <c r="C90">
-        <v>-0.03604943632788677</v>
+        <v>0.2631820306908346</v>
       </c>
       <c r="D90">
-        <v>-0.3380400699194596</v>
+        <v>0.01977317717280531</v>
       </c>
       <c r="E90">
-        <v>-0.1084700938229853</v>
+        <v>-0.02082867198678598</v>
       </c>
       <c r="F90">
-        <v>0.03599985288894907</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04894207473732326</v>
+      </c>
+      <c r="G90">
+        <v>-0.03207058690159872</v>
+      </c>
+      <c r="H90">
+        <v>-0.06092201116530683</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2588065770640482</v>
+        <v>0.1884366386692709</v>
       </c>
       <c r="C91">
-        <v>-0.164731118090032</v>
+        <v>-0.2098059516942236</v>
       </c>
       <c r="D91">
-        <v>0.04426798577153784</v>
+        <v>0.04367651958511888</v>
       </c>
       <c r="E91">
-        <v>0.15051049818906</v>
+        <v>0.03790647576764162</v>
       </c>
       <c r="F91">
-        <v>-0.2277243782661183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.07459448493707777</v>
+      </c>
+      <c r="G91">
+        <v>-0.01241346170697951</v>
+      </c>
+      <c r="H91">
+        <v>-0.1983668279113082</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1731578372377918</v>
+        <v>0.2798771543598656</v>
       </c>
       <c r="C92">
-        <v>-0.08389256859159469</v>
+        <v>0.1726989899605422</v>
       </c>
       <c r="D92">
-        <v>-0.4150211792514858</v>
+        <v>0.06281455550362475</v>
       </c>
       <c r="E92">
-        <v>-0.04161631709778829</v>
+        <v>-0.0144300123494638</v>
       </c>
       <c r="F92">
-        <v>-0.1256346955335074</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.06660833679060311</v>
+      </c>
+      <c r="G92">
+        <v>0.001461730404256636</v>
+      </c>
+      <c r="H92">
+        <v>-0.1525312248705262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1085694800927235</v>
+        <v>0.305828943894104</v>
       </c>
       <c r="C93">
-        <v>-0.08701572494768416</v>
+        <v>0.256495167669584</v>
       </c>
       <c r="D93">
-        <v>-0.3862148398485936</v>
+        <v>0.02921059571112841</v>
       </c>
       <c r="E93">
-        <v>-0.1634926430868759</v>
+        <v>-0.04696793534065009</v>
       </c>
       <c r="F93">
-        <v>0.05531401340191153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01558057800836824</v>
+      </c>
+      <c r="G93">
+        <v>-0.03889435725478278</v>
+      </c>
+      <c r="H93">
+        <v>0.006864704585572805</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2641155449337435</v>
+        <v>0.2295545953023962</v>
       </c>
       <c r="C94">
-        <v>-0.1851278823255619</v>
+        <v>-0.2363642407094709</v>
       </c>
       <c r="D94">
-        <v>0.003771863317837922</v>
+        <v>0.03375318247908684</v>
       </c>
       <c r="E94">
-        <v>0.2508335735997416</v>
+        <v>0.05969361798652817</v>
       </c>
       <c r="F94">
-        <v>-0.1456843066914813</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1645877631253837</v>
+      </c>
+      <c r="G94">
+        <v>0.0403188536491719</v>
+      </c>
+      <c r="H94">
+        <v>-0.4326540753858644</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.02337887996706166</v>
+        <v>0.03380927500034545</v>
       </c>
       <c r="C95">
-        <v>-0.1008671814611605</v>
+        <v>-0.1045021252802515</v>
       </c>
       <c r="D95">
-        <v>0.03211148087982745</v>
+        <v>0.01222569238090847</v>
       </c>
       <c r="E95">
-        <v>0.0317274533708743</v>
+        <v>-0.100711889859769</v>
       </c>
       <c r="F95">
-        <v>0.02573530246753345</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.01724547772097046</v>
+      </c>
+      <c r="G95">
+        <v>0.02620111818315949</v>
+      </c>
+      <c r="H95">
+        <v>0.04477940913615485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1354202001881494</v>
+        <v>0.1855521860926276</v>
       </c>
       <c r="C98">
-        <v>-0.1107628673477057</v>
+        <v>-0.07009066387189854</v>
       </c>
       <c r="D98">
-        <v>-0.01114096593877756</v>
+        <v>0.03432148710801987</v>
       </c>
       <c r="E98">
-        <v>-0.07374928647667618</v>
+        <v>-0.05541035731803698</v>
       </c>
       <c r="F98">
-        <v>0.1804129130736024</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.05219154010935548</v>
+      </c>
+      <c r="G98">
+        <v>0.02662676229941111</v>
+      </c>
+      <c r="H98">
+        <v>0.3362200495401133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01156324036270098</v>
+        <v>0.005493728670646449</v>
       </c>
       <c r="C101">
-        <v>0.002642818448285871</v>
+        <v>-0.01855812315704192</v>
       </c>
       <c r="D101">
-        <v>0.04118132618323424</v>
+        <v>-0.005698661805831455</v>
       </c>
       <c r="E101">
-        <v>0.02898323371224588</v>
+        <v>-0.0206724879384683</v>
       </c>
       <c r="F101">
-        <v>0.1751006661269325</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.05370660132699773</v>
+      </c>
+      <c r="G101">
+        <v>0.05557335962340795</v>
+      </c>
+      <c r="H101">
+        <v>0.01004250390380059</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1103370265452602</v>
+        <v>0.09467309472998074</v>
       </c>
       <c r="C102">
-        <v>-0.06156802127796684</v>
+        <v>-0.1114080893174996</v>
       </c>
       <c r="D102">
-        <v>0.01420974746225822</v>
+        <v>0.009570466713480967</v>
       </c>
       <c r="E102">
-        <v>0.086209643161616</v>
+        <v>0.02802636744899935</v>
       </c>
       <c r="F102">
-        <v>-0.08865800579010612</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05099857778807466</v>
+      </c>
+      <c r="G102">
+        <v>0.003376600886383318</v>
+      </c>
+      <c r="H102">
+        <v>-0.07234866164824366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04748560319980355</v>
+        <v>0.01154315417906368</v>
       </c>
       <c r="C103">
-        <v>-0.01017716026305566</v>
+        <v>-0.01900078589590589</v>
       </c>
       <c r="D103">
-        <v>0.01920853835488385</v>
+        <v>0.001454825255600173</v>
       </c>
       <c r="E103">
-        <v>0.04228880637549627</v>
+        <v>0.01030661834856045</v>
       </c>
       <c r="F103">
-        <v>-0.01142502051410865</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01176841075890556</v>
+      </c>
+      <c r="G103">
+        <v>0.003878910062756664</v>
+      </c>
+      <c r="H103">
+        <v>-0.0170011966524197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1054415548390475</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.01373988297999251</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9802874598970375</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.05292593286537941</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.04496710230823123</v>
+      </c>
+      <c r="G104">
+        <v>0.1004673405747301</v>
+      </c>
+      <c r="H104">
+        <v>-0.05844177384479354</v>
       </c>
     </row>
   </sheetData>
